--- a/data/financial_statements/sofp/TFX.xlsx
+++ b/data/financial_statements/sofp/TFX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>397000000</v>
+        <v>397259000</v>
       </c>
       <c r="C2">
-        <v>308000000</v>
+        <v>308121000</v>
       </c>
       <c r="D2">
-        <v>467000000</v>
+        <v>466656000</v>
       </c>
       <c r="E2">
-        <v>445000000</v>
+        <v>445084000</v>
       </c>
       <c r="F2">
-        <v>481000000</v>
+        <v>481167000</v>
       </c>
       <c r="G2">
         <v>361781000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>391000000</v>
+        <v>391251000</v>
       </c>
       <c r="C3">
-        <v>415000000</v>
+        <v>415297000</v>
       </c>
       <c r="D3">
-        <v>407000000</v>
+        <v>407159000</v>
       </c>
       <c r="E3">
-        <v>384000000</v>
+        <v>383569000</v>
       </c>
       <c r="F3">
-        <v>400000000</v>
+        <v>399744000</v>
       </c>
       <c r="G3">
         <v>414195000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>530000000</v>
+        <v>530088000</v>
       </c>
       <c r="C4">
-        <v>511000000</v>
+        <v>510531000</v>
       </c>
       <c r="D4">
-        <v>491000000</v>
+        <v>491422000</v>
       </c>
       <c r="E4">
-        <v>478000000</v>
+        <v>477643000</v>
       </c>
       <c r="F4">
-        <v>484000000</v>
+        <v>484345000</v>
       </c>
       <c r="G4">
         <v>490318000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>141000000</v>
@@ -1078,23 +1189,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1459000000</v>
+        <v>1459382000</v>
       </c>
       <c r="C6">
-        <v>1385000000</v>
+        <v>1385345000</v>
       </c>
       <c r="D6">
-        <v>1494000000</v>
+        <v>1494201000</v>
       </c>
       <c r="E6">
-        <v>1429000000</v>
+        <v>1429118000</v>
       </c>
       <c r="F6">
-        <v>1542000000</v>
+        <v>1541837000</v>
       </c>
       <c r="G6">
         <v>1437228000</v>
@@ -1200,23 +1311,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>534000000</v>
+        <v>422355000</v>
       </c>
       <c r="C7">
-        <v>548000000</v>
+        <v>429372000</v>
       </c>
       <c r="D7">
-        <v>560000000</v>
+        <v>436021000</v>
       </c>
       <c r="E7">
-        <v>573000000</v>
+        <v>443758000</v>
       </c>
       <c r="F7">
-        <v>576000000</v>
+        <v>446318000</v>
       </c>
       <c r="G7">
         <v>449754000</v>
@@ -1322,8 +1433,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>97000000</v>
@@ -1393,23 +1504,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>4592000000</v>
+        <v>4591556000</v>
       </c>
       <c r="C9">
-        <v>4688000000</v>
+        <v>4687958000</v>
       </c>
       <c r="D9">
-        <v>4736000000</v>
+        <v>4736285000</v>
       </c>
       <c r="E9">
-        <v>4793000000</v>
+        <v>4793269000</v>
       </c>
       <c r="F9">
-        <v>4860000000</v>
+        <v>4860199000</v>
       </c>
       <c r="G9">
         <v>4918761000</v>
@@ -1515,8 +1626,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>5762000</v>
@@ -1637,23 +1748,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>70000000</v>
+        <v>166985000</v>
       </c>
       <c r="C11">
-        <v>61000000</v>
+        <v>104308000</v>
       </c>
       <c r="D11">
-        <v>61000000</v>
+        <v>75622000</v>
       </c>
       <c r="E11">
-        <v>60000000</v>
+        <v>69104000</v>
       </c>
       <c r="F11">
-        <v>53000000</v>
+        <v>53185000</v>
       </c>
       <c r="G11">
         <v>137092000</v>
@@ -1759,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>5298705000</v>
@@ -1881,23 +1992,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>6758000000</v>
+        <v>6758087000</v>
       </c>
       <c r="C13">
-        <v>6732000000</v>
+        <v>6731846000</v>
       </c>
       <c r="D13">
-        <v>6873000000</v>
+        <v>6873310000</v>
       </c>
       <c r="E13">
-        <v>6872000000</v>
+        <v>6871722000</v>
       </c>
       <c r="F13">
-        <v>7040000000</v>
+        <v>7039962000</v>
       </c>
       <c r="G13">
         <v>7066387000</v>
@@ -2003,23 +2114,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>122000000</v>
+        <v>121508000</v>
       </c>
       <c r="C14">
-        <v>121000000</v>
+        <v>121418000</v>
       </c>
       <c r="D14">
-        <v>117000000</v>
+        <v>117464000</v>
       </c>
       <c r="E14">
-        <v>118000000</v>
+        <v>118236000</v>
       </c>
       <c r="F14">
-        <v>104000000</v>
+        <v>104139000</v>
       </c>
       <c r="G14">
         <v>106567000</v>
@@ -2125,8 +2236,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>278333000</v>
@@ -2247,11 +2358,11 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>114000000</v>
+        <v>114375000</v>
       </c>
       <c r="C16">
         <v>110000000</v>
@@ -2260,10 +2371,10 @@
         <v>110000000</v>
       </c>
       <c r="E16">
-        <v>132000000</v>
+        <v>110000000</v>
       </c>
       <c r="F16">
-        <v>101000000</v>
+        <v>101250000</v>
       </c>
       <c r="G16">
         <v>92500000</v>
@@ -2369,8 +2480,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>41320000</v>
@@ -2491,23 +2602,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>334000000</v>
+        <v>55407000</v>
       </c>
       <c r="C18">
-        <v>327000000</v>
+        <v>56004000</v>
       </c>
       <c r="D18">
-        <v>340000000</v>
+        <v>62125000</v>
       </c>
       <c r="E18">
-        <v>346000000</v>
+        <v>55633000</v>
       </c>
       <c r="F18">
-        <v>340000000</v>
+        <v>63240000</v>
       </c>
       <c r="G18">
         <v>47321000</v>
@@ -2613,23 +2724,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>611000000</v>
+        <v>610943000</v>
       </c>
       <c r="C19">
-        <v>610000000</v>
+        <v>610446000</v>
       </c>
       <c r="D19">
-        <v>656000000</v>
+        <v>656200000</v>
       </c>
       <c r="E19">
-        <v>680000000</v>
+        <v>680119000</v>
       </c>
       <c r="F19">
-        <v>562000000</v>
+        <v>562210000</v>
       </c>
       <c r="G19">
         <v>526848000</v>
@@ -2735,23 +2846,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1693000000</v>
+        <v>1593504000</v>
       </c>
       <c r="C20">
-        <v>1711000000</v>
+        <v>1605954000</v>
       </c>
       <c r="D20">
-        <v>1850000000</v>
+        <v>1740778000</v>
       </c>
       <c r="E20">
-        <v>1856000000</v>
+        <v>1740102000</v>
       </c>
       <c r="F20">
-        <v>2063000000</v>
+        <v>1948666000</v>
       </c>
       <c r="G20">
         <v>2215666000</v>
@@ -2857,8 +2968,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>40345000</v>
@@ -2979,23 +3090,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>382000000</v>
+        <v>387333000</v>
       </c>
       <c r="C22">
-        <v>374000000</v>
+        <v>379931000</v>
       </c>
       <c r="D22">
-        <v>363000000</v>
+        <v>369739000</v>
       </c>
       <c r="E22">
-        <v>363000000</v>
+        <v>370124000</v>
       </c>
       <c r="F22">
-        <v>471000000</v>
+        <v>479105000</v>
       </c>
       <c r="G22">
         <v>483269000</v>
@@ -3101,23 +3212,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>171000000</v>
+        <v>131195000</v>
       </c>
       <c r="C23">
-        <v>178000000</v>
+        <v>135986000</v>
       </c>
       <c r="D23">
-        <v>201000000</v>
+        <v>158035000</v>
       </c>
       <c r="E23">
-        <v>211000000</v>
+        <v>165411000</v>
       </c>
       <c r="F23">
-        <v>277000000</v>
+        <v>227489000</v>
       </c>
       <c r="G23">
         <v>222021000</v>
@@ -3223,8 +3334,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2251983000</v>
@@ -3345,23 +3456,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2863000000</v>
+        <v>2862926000</v>
       </c>
       <c r="C25">
-        <v>2879000000</v>
+        <v>2879116000</v>
       </c>
       <c r="D25">
-        <v>3078000000</v>
+        <v>3077776000</v>
       </c>
       <c r="E25">
-        <v>3117000000</v>
+        <v>3116974000</v>
       </c>
       <c r="F25">
-        <v>3382000000</v>
+        <v>3382090000</v>
       </c>
       <c r="G25">
         <v>3600285000</v>
@@ -3467,8 +3578,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>707060000</v>
@@ -3589,23 +3700,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>48000000</v>
+        <v>47941000</v>
       </c>
       <c r="C27">
-        <v>48000000</v>
+        <v>47940000</v>
       </c>
       <c r="D27">
-        <v>48000000</v>
+        <v>47934000</v>
       </c>
       <c r="E27">
-        <v>48000000</v>
+        <v>47929000</v>
       </c>
       <c r="F27">
-        <v>48000000</v>
+        <v>47915000</v>
       </c>
       <c r="G27">
         <v>47882000</v>
@@ -3711,23 +3822,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3755000000</v>
+        <v>3754664000</v>
       </c>
       <c r="C28">
-        <v>3669000000</v>
+        <v>3668717000</v>
       </c>
       <c r="D28">
-        <v>3579000000</v>
+        <v>3579149000</v>
       </c>
       <c r="E28">
-        <v>3518000000</v>
+        <v>3517954000</v>
       </c>
       <c r="F28">
-        <v>3406000000</v>
+        <v>3405807000</v>
       </c>
       <c r="G28">
         <v>3222549000</v>
@@ -3833,8 +3944,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>155312000</v>
@@ -3955,23 +4066,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3895000000</v>
+        <v>3895161000</v>
       </c>
       <c r="C30">
-        <v>3853000000</v>
+        <v>3852730000</v>
       </c>
       <c r="D30">
-        <v>3796000000</v>
+        <v>3795534000</v>
       </c>
       <c r="E30">
-        <v>3755000000</v>
+        <v>3754748000</v>
       </c>
       <c r="F30">
-        <v>3658000000</v>
+        <v>3657872000</v>
       </c>
       <c r="G30">
         <v>3466102000</v>
@@ -4077,23 +4188,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>3895000000</v>
+        <v>3895161000</v>
       </c>
       <c r="C31">
-        <v>3853000000</v>
+        <v>3852730000</v>
       </c>
       <c r="D31">
-        <v>3796000000</v>
+        <v>3795534000</v>
       </c>
       <c r="E31">
-        <v>3755000000</v>
+        <v>3754748000</v>
       </c>
       <c r="F31">
-        <v>3658000000</v>
+        <v>3657872000</v>
       </c>
       <c r="G31">
         <v>3466102000</v>
@@ -4199,8 +4310,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>6758087000</v>
@@ -4321,8 +4432,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>46907000</v>
@@ -4443,8 +4554,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-696395300</v>
@@ -4565,23 +4676,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>1410000000</v>
+        <v>1310620000</v>
       </c>
       <c r="C35">
-        <v>1513000000</v>
+        <v>1407833000</v>
       </c>
       <c r="D35">
-        <v>1493000000</v>
+        <v>1384122000</v>
       </c>
       <c r="E35">
-        <v>1543000000</v>
+        <v>1405018000</v>
       </c>
       <c r="F35">
-        <v>1683000000</v>
+        <v>1568749000</v>
       </c>
       <c r="G35">
         <v>1946385000</v>
@@ -4687,23 +4798,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>1807000000</v>
+        <v>1707879000</v>
       </c>
       <c r="C36">
-        <v>1821000000</v>
+        <v>1715954000</v>
       </c>
       <c r="D36">
-        <v>1960000000</v>
+        <v>1850778000</v>
       </c>
       <c r="E36">
-        <v>1988000000</v>
+        <v>1850102000</v>
       </c>
       <c r="F36">
-        <v>2164000000</v>
+        <v>2049916000</v>
       </c>
       <c r="G36">
         <v>2308166000</v>
